--- a/BlockTanksStats/Templates/ClanLeaderBoardTemplate.xlsx
+++ b/BlockTanksStats/Templates/ClanLeaderBoardTemplate.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peterB\repositories\hobby projecten\BlockTanksStats\BlockTanksStats\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B1749-4782-455B-A40E-8637C34E2DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C643C9B-3BD5-40FD-A1E7-146CDEA7BAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="XP Per Day" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Clans">Tabelle1!$A$2:$F$3</definedName>
-    <definedName name="Clans_XP">Tabelle1!$F$2</definedName>
-    <definedName name="Dates">Tabelle1!$F$1</definedName>
+    <definedName name="Clans">'XP Per Day'!$A$2:$F$3</definedName>
+    <definedName name="Clans_XP">'XP Per Day'!$F$2</definedName>
+    <definedName name="Dates">'XP Per Day'!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,11 +150,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -437,7 +444,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +521,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
